--- a/hypatia/parameters_planning_Kenya/parameters_connections.xlsx
+++ b/hypatia/parameters_planning_Kenya/parameters_connections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SESAM\anaconda3\envs\hypatia\Lib\site-packages\hypatia\parameters_planning_Kenya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C83BF43-1DA7-487F-8264-A442DBD25AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC0892-FC31-472D-A774-D7AFB08DE4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F_OM" sheetId="1" r:id="rId1"/>
@@ -7097,8 +7097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AQ25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AT6" sqref="AT6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7302,2882 +7302,2987 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>1E+30</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1483900</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1672950</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>396750</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>372193.5</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>130525.5</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>1E+30</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>H4*1.05</f>
+        <v>1558095</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>O4*1.05</f>
+        <v>1756597.5</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>V4*1.05</f>
+        <v>416587.5</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <f>AJ4*1.05</f>
+        <v>390803.17499999999</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <f>AQ4*1.05</f>
+        <v>137051.77499999999</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>1E+30</v>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H25" si="0">H5*1.05</f>
+        <v>1635999.75</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O25" si="1">O5*1.05</f>
+        <v>1844427.375</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V25" si="2">V5*1.05</f>
+        <v>437416.875</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ref="AJ6:AJ25" si="3">AJ5*1.05</f>
+        <v>410343.33374999999</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" ref="AQ6:AQ25" si="4">AQ5*1.05</f>
+        <v>143904.36374999999</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>1E+30</v>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1717799.7375</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>1936648.7437500001</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>459287.71875</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="3"/>
+        <v>430860.50043750001</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="4"/>
+        <v>151099.58193749998</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>1E+30</v>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1803689.7243750002</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>2033481.1809375002</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>482252.10468750005</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="3"/>
+        <v>452403.52545937506</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="4"/>
+        <v>158654.56103437499</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>1E+30</v>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1893874.2105937502</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2135155.2399843754</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>506364.7099218751</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="3"/>
+        <v>475023.70173234382</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="4"/>
+        <v>166587.28908609375</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="2">
-        <v>1E+30</v>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1988567.9211234378</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>2241913.0019835941</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>531682.94541796891</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="3"/>
+        <v>498774.88681896101</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="4"/>
+        <v>174916.65354039843</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>1E+30</v>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2087996.3171796098</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>2354008.6520827739</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>558267.09268886736</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="3"/>
+        <v>523713.63115990907</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="4"/>
+        <v>183662.48621741837</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>1E+30</v>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2192396.1330385902</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>2471709.0846869126</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>586180.44732331077</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="3"/>
+        <v>549899.31271790457</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="4"/>
+        <v>192845.61052828928</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="2">
-        <v>1E+30</v>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2302015.9396905196</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>2595294.5389212584</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>615489.4696894763</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="3"/>
+        <v>577394.27835379983</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="4"/>
+        <v>202487.89105470377</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="2">
-        <v>1E+30</v>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2417116.7366750455</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>2725059.2658673213</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>646263.94317395019</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="3"/>
+        <v>606263.99227148981</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="4"/>
+        <v>212612.28560743897</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>1E+30</v>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2537972.5735087977</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>2861312.2291606874</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>678577.14033264772</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="3"/>
+        <v>636577.19188506436</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="4"/>
+        <v>223242.89988781093</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="2">
-        <v>1E+30</v>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>2664871.2021842375</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>3004377.8406187221</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>712505.99734928017</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="3"/>
+        <v>668406.0514793176</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="4"/>
+        <v>234405.04488220147</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="2">
-        <v>1E+30</v>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>2798114.7622934496</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>3154596.7326496583</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>748131.29721674416</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="3"/>
+        <v>701826.35405328346</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="4"/>
+        <v>246125.29712631155</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="2">
-        <v>1E+30</v>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>2938020.5004081223</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>3312326.5692821415</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>785537.86207758135</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="3"/>
+        <v>736917.67175594764</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="4"/>
+        <v>258431.56198262714</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="2">
-        <v>1E+30</v>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>3084921.5254285284</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>3477942.8977462486</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>824814.75518146041</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="3"/>
+        <v>773763.55534374504</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="4"/>
+        <v>271353.14008175849</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="2">
-        <v>1E+30</v>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>3239167.6016999548</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>3651840.0426335614</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>866055.49294053344</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="3"/>
+        <v>812451.73311093228</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="4"/>
+        <v>284920.79708584643</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="2">
-        <v>1E+30</v>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>3401125.9817849528</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>3834432.0447652396</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>909358.26758756011</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="3"/>
+        <v>853074.31976647896</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="4"/>
+        <v>299166.83694013878</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="2">
-        <v>1E+30</v>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>3571182.2808742006</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>4026153.6470035017</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>954826.18096693815</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="3"/>
+        <v>895728.03575480299</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="4"/>
+        <v>314125.17878714571</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="2">
-        <v>1E+30</v>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>3749741.3949179109</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>4227461.3293536771</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>1002567.4900152851</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="3"/>
+        <v>940514.43754254316</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="4"/>
+        <v>329831.43772650301</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="2">
-        <v>1E+30</v>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>3937228.4646638068</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>4438834.3958213609</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>1052695.8645160494</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="3"/>
+        <v>987540.15941967035</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="4"/>
+        <v>346323.00961282814</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3">
-        <v>0</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0</v>
-      </c>
-      <c r="T25" s="3">
-        <v>0</v>
-      </c>
-      <c r="U25" s="3">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="W25" s="3">
-        <v>0</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="2">
-        <v>1E+30</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="2">
-        <v>1E+30</v>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>4134089.8878969974</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>4660776.1156124296</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>1105330.6577418519</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="3"/>
+        <v>1036917.1673906539</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="4"/>
+        <v>363639.16009346955</v>
       </c>
     </row>
   </sheetData>
@@ -16742,8 +16847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AQ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4:AP25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19842,7 +19947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ25"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AQ4" sqref="AQ4:AQ25"/>
     </sheetView>
   </sheetViews>
@@ -20066,8 +20171,8 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f>0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -20088,8 +20193,8 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <f>0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f>0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -20110,8 +20215,8 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <f>0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f>0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -20132,8 +20237,8 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f>0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -20154,8 +20259,8 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f>0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -20176,8 +20281,8 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <f>0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f>0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
@@ -20203,8 +20308,8 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H25" si="0">0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f t="shared" ref="H5:H25" si="0">0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -20225,8 +20330,8 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O25" si="1">0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f t="shared" ref="O5:O25" si="1">0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -20247,8 +20352,8 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V5:V25" si="2">0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f t="shared" ref="V5:V25" si="2">0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -20269,8 +20374,8 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" ref="AC5:AC25" si="3">0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f t="shared" ref="AC5:AC25" si="3">0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -20291,8 +20396,8 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f t="shared" ref="AJ5:AJ25" si="4">0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f t="shared" ref="AJ5:AJ25" si="4">0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -20313,8 +20418,8 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <f t="shared" ref="AQ5:AQ25" si="5">0.00012*365</f>
-        <v>4.3799999999999999E-2</v>
+        <f t="shared" ref="AQ5:AQ25" si="5">0.0012*365</f>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
@@ -20341,7 +20446,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -20363,7 +20468,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -20385,7 +20490,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -20407,7 +20512,7 @@
       </c>
       <c r="AC6">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -20429,7 +20534,7 @@
       </c>
       <c r="AJ6">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -20451,7 +20556,7 @@
       </c>
       <c r="AQ6">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
@@ -20478,7 +20583,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -20500,7 +20605,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -20522,7 +20627,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -20544,7 +20649,7 @@
       </c>
       <c r="AC7">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -20566,7 +20671,7 @@
       </c>
       <c r="AJ7">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -20588,7 +20693,7 @@
       </c>
       <c r="AQ7">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
@@ -20615,7 +20720,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -20637,7 +20742,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -20659,7 +20764,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -20681,7 +20786,7 @@
       </c>
       <c r="AC8">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -20703,7 +20808,7 @@
       </c>
       <c r="AJ8">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -20725,7 +20830,7 @@
       </c>
       <c r="AQ8">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
@@ -20752,7 +20857,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -20774,7 +20879,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -20796,7 +20901,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -20818,7 +20923,7 @@
       </c>
       <c r="AC9">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -20840,7 +20945,7 @@
       </c>
       <c r="AJ9">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -20862,7 +20967,7 @@
       </c>
       <c r="AQ9">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
@@ -20889,7 +20994,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -20911,7 +21016,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -20933,7 +21038,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -20955,7 +21060,7 @@
       </c>
       <c r="AC10">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -20977,7 +21082,7 @@
       </c>
       <c r="AJ10">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -20999,7 +21104,7 @@
       </c>
       <c r="AQ10">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.35">
@@ -21026,7 +21131,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -21048,7 +21153,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -21070,7 +21175,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -21092,7 +21197,7 @@
       </c>
       <c r="AC11">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -21114,7 +21219,7 @@
       </c>
       <c r="AJ11">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -21136,7 +21241,7 @@
       </c>
       <c r="AQ11">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.35">
@@ -21163,7 +21268,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -21185,7 +21290,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -21207,7 +21312,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -21229,7 +21334,7 @@
       </c>
       <c r="AC12">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -21251,7 +21356,7 @@
       </c>
       <c r="AJ12">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -21273,7 +21378,7 @@
       </c>
       <c r="AQ12">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.35">
@@ -21300,7 +21405,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -21322,7 +21427,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -21344,7 +21449,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -21366,7 +21471,7 @@
       </c>
       <c r="AC13">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -21388,7 +21493,7 @@
       </c>
       <c r="AJ13">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -21410,7 +21515,7 @@
       </c>
       <c r="AQ13">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.35">
@@ -21437,7 +21542,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -21459,7 +21564,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -21481,7 +21586,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -21503,7 +21608,7 @@
       </c>
       <c r="AC14">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -21525,7 +21630,7 @@
       </c>
       <c r="AJ14">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -21547,7 +21652,7 @@
       </c>
       <c r="AQ14">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.35">
@@ -21574,7 +21679,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -21596,7 +21701,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -21618,7 +21723,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -21640,7 +21745,7 @@
       </c>
       <c r="AC15">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -21662,7 +21767,7 @@
       </c>
       <c r="AJ15">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -21684,7 +21789,7 @@
       </c>
       <c r="AQ15">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.35">
@@ -21711,7 +21816,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -21733,7 +21838,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -21755,7 +21860,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -21777,7 +21882,7 @@
       </c>
       <c r="AC16">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -21799,7 +21904,7 @@
       </c>
       <c r="AJ16">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -21821,7 +21926,7 @@
       </c>
       <c r="AQ16">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.35">
@@ -21848,7 +21953,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -21870,7 +21975,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -21892,7 +21997,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -21914,7 +22019,7 @@
       </c>
       <c r="AC17">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -21936,7 +22041,7 @@
       </c>
       <c r="AJ17">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -21958,7 +22063,7 @@
       </c>
       <c r="AQ17">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.35">
@@ -21985,7 +22090,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -22007,7 +22112,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -22029,7 +22134,7 @@
       </c>
       <c r="V18">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -22051,7 +22156,7 @@
       </c>
       <c r="AC18">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -22073,7 +22178,7 @@
       </c>
       <c r="AJ18">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -22095,7 +22200,7 @@
       </c>
       <c r="AQ18">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.35">
@@ -22122,7 +22227,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -22144,7 +22249,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -22166,7 +22271,7 @@
       </c>
       <c r="V19">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -22188,7 +22293,7 @@
       </c>
       <c r="AC19">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -22210,7 +22315,7 @@
       </c>
       <c r="AJ19">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -22232,7 +22337,7 @@
       </c>
       <c r="AQ19">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.35">
@@ -22259,7 +22364,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -22281,7 +22386,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -22303,7 +22408,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -22325,7 +22430,7 @@
       </c>
       <c r="AC20">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -22347,7 +22452,7 @@
       </c>
       <c r="AJ20">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -22369,7 +22474,7 @@
       </c>
       <c r="AQ20">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.35">
@@ -22396,7 +22501,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -22418,7 +22523,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -22440,7 +22545,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -22462,7 +22567,7 @@
       </c>
       <c r="AC21">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -22484,7 +22589,7 @@
       </c>
       <c r="AJ21">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -22506,7 +22611,7 @@
       </c>
       <c r="AQ21">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.35">
@@ -22533,7 +22638,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -22555,7 +22660,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -22577,7 +22682,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -22599,7 +22704,7 @@
       </c>
       <c r="AC22">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -22621,7 +22726,7 @@
       </c>
       <c r="AJ22">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK22">
         <v>0</v>
@@ -22643,7 +22748,7 @@
       </c>
       <c r="AQ22">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.35">
@@ -22670,7 +22775,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -22692,7 +22797,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -22714,7 +22819,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -22736,7 +22841,7 @@
       </c>
       <c r="AC23">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -22758,7 +22863,7 @@
       </c>
       <c r="AJ23">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -22780,7 +22885,7 @@
       </c>
       <c r="AQ23">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.35">
@@ -22807,7 +22912,7 @@
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -22829,7 +22934,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -22851,7 +22956,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -22873,7 +22978,7 @@
       </c>
       <c r="AC24">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -22895,7 +23000,7 @@
       </c>
       <c r="AJ24">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -22917,7 +23022,7 @@
       </c>
       <c r="AQ24">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.35">
@@ -22944,7 +23049,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -22966,7 +23071,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -22988,7 +23093,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="2"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -23010,7 +23115,7 @@
       </c>
       <c r="AC25">
         <f t="shared" si="3"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -23032,7 +23137,7 @@
       </c>
       <c r="AJ25">
         <f t="shared" si="4"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
       <c r="AK25">
         <v>0</v>
@@ -23054,7 +23159,7 @@
       </c>
       <c r="AQ25">
         <f t="shared" si="5"/>
-        <v>4.3799999999999999E-2</v>
+        <v>0.43799999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -23074,7 +23179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ25"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:AQ25"/>
     </sheetView>
   </sheetViews>
@@ -36170,8 +36275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36394,7 +36499,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -36415,7 +36520,7 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -36436,7 +36541,7 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -36457,7 +36562,7 @@
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -36478,7 +36583,7 @@
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK4">
         <v>1</v>
@@ -36499,7 +36604,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
